--- a/city-metro-visualization/data/广州/metro_adj_stations.xlsx
+++ b/city-metro-visualization/data/广州/metro_adj_stations.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="536">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="562">
   <si>
     <t>station_name</t>
   </si>
@@ -43,6 +43,9 @@
     <t>三溪</t>
   </si>
   <si>
+    <t>上步</t>
+  </si>
+  <si>
     <t>世纪莲</t>
   </si>
   <si>
@@ -85,6 +88,9 @@
     <t>京溪南方医院</t>
   </si>
   <si>
+    <t>亭岗</t>
+  </si>
+  <si>
     <t>人和</t>
   </si>
   <si>
@@ -136,6 +142,9 @@
     <t>华师</t>
   </si>
   <si>
+    <t>华林寺</t>
+  </si>
+  <si>
     <t>南岗</t>
   </si>
   <si>
@@ -169,6 +178,9 @@
     <t>同和</t>
   </si>
   <si>
+    <t>同德</t>
+  </si>
+  <si>
     <t>同济路</t>
   </si>
   <si>
@@ -280,6 +292,9 @@
     <t>小北</t>
   </si>
   <si>
+    <t>小坪</t>
+  </si>
+  <si>
     <t>山田</t>
   </si>
   <si>
@@ -466,6 +481,9 @@
     <t>滘口</t>
   </si>
   <si>
+    <t>滘心</t>
+  </si>
+  <si>
     <t>潭村</t>
   </si>
   <si>
@@ -511,12 +529,18 @@
     <t>知识城</t>
   </si>
   <si>
+    <t>石井</t>
+  </si>
+  <si>
     <t>石壁</t>
   </si>
   <si>
     <t>石溪</t>
   </si>
   <si>
+    <t>石潭</t>
+  </si>
+  <si>
     <t>石牌桥</t>
   </si>
   <si>
@@ -553,6 +577,9 @@
     <t>纪念堂</t>
   </si>
   <si>
+    <t>聚龙</t>
+  </si>
+  <si>
     <t>花地湾</t>
   </si>
   <si>
@@ -697,6 +724,9 @@
     <t>鱼珠</t>
   </si>
   <si>
+    <t>鹅掌坦</t>
+  </si>
+  <si>
     <t>鹤洞</t>
   </si>
   <si>
@@ -742,6 +772,9 @@
     <t>{}</t>
   </si>
   <si>
+    <t>{'同德': 0.84}</t>
+  </si>
+  <si>
     <t>{'南洲': 0.8, '石溪': 0.92}</t>
   </si>
   <si>
@@ -778,12 +811,18 @@
     <t>{'岗顶': 0.84}</t>
   </si>
   <si>
+    <t>{'文化公园': 1.0, '长寿路': 0.51, '陈家祠': 0.85}</t>
+  </si>
+  <si>
     <t>{'礌岗': 0.95}</t>
   </si>
   <si>
     <t>{'东晓南': 0.8}</t>
   </si>
   <si>
+    <t>{'上步': 0.84, '鹅掌坦': 0.8}</t>
+  </si>
+  <si>
     <t>{'祖庙': 0.95}</t>
   </si>
   <si>
@@ -817,7 +856,7 @@
     <t>{'海心沙': 0.58}</t>
   </si>
   <si>
-    <t>{'一德路': 0.94, '同福西': 0.92, '黄沙': 0.94}</t>
+    <t>{'一德路': 0.94, '华林寺': 1.0, '同福西': 0.92, '黄沙': 0.94}</t>
   </si>
   <si>
     <t>{'琶洲': 0.99}</t>
@@ -898,6 +937,9 @@
     <t>{'东晓南': 0.92}</t>
   </si>
   <si>
+    <t>{'聚龙': 0.77}</t>
+  </si>
+  <si>
     <t>{'体育中心': 0.43, '体育中心南': 0.81, '天河南': 0.81, '岗顶': 0.79}</t>
   </si>
   <si>
@@ -913,6 +955,9 @@
     <t>{'公园前': 0.75, '越秀公园': 0.9}</t>
   </si>
   <si>
+    <t>{'石潭': 0.77}</t>
+  </si>
+  <si>
     <t>{'坑口': 0.92}</t>
   </si>
   <si>
@@ -940,10 +985,13 @@
     <t>{'棠东': 0.96}</t>
   </si>
   <si>
-    <t>{'陈家祠': 0.92, '黄沙': 0.91}</t>
-  </si>
-  <si>
-    <t>{'西门口': 0.96, '长寿路': 0.92}</t>
+    <t>{'华林寺': 0.51, '陈家祠': 0.92, '黄沙': 0.91}</t>
+  </si>
+  <si>
+    <t>{'华林寺': 0.85, '西门口': 0.96, '长寿路': 0.92}</t>
+  </si>
+  <si>
+    <t>{'同德': 0.8}</t>
   </si>
   <si>
     <t>{'体育中心': 0.97, '体育中心南': 0.8, '体育西路': 0.55, '天河南': 0.48, '妇儿中心': 0.5, '珠江新城': 0.93, '花城大道': 0.87}</t>
@@ -955,18 +1003,21 @@
     <t>{'区庄': 0.81, '沙河顶': 0.99}</t>
   </si>
   <si>
-    <t>{'中山八': 2.89, '公园前': 1.56, '农讲所': 2.41, '凤凰新村': 2.04, '北京路': 1.48, '同福西': 1.37, '团一大广场': 2.23, '如意坊': 2.67, '市二宫': 1.52, '文化公园': 0.94, '江南西': 2.45, '沙园': 2.74, '海珠广场': 0.86, '纪念堂': 2.22, '芳村': 2.72, '西门口': 1.36, '长寿路': 1.64, '陈家祠': 1.79, '黄沙': 1.8}</t>
+    <t>{'中山八': 2.89, '公园前': 1.56, '农讲所': 2.41, '凤凰新村': 2.04, '北京路': 1.48, '华林寺': 1.16, '同福西': 1.37, '团一大广场': 2.23, '如意坊': 2.67, '市二宫': 1.52, '文化公园': 0.94, '江南西': 2.45, '沙园': 2.74, '海珠广场': 0.86, '纪念堂': 2.22, '芳村': 2.72, '西门口': 1.36, '长寿路': 1.64, '陈家祠': 1.79, '黄沙': 1.8}</t>
   </si>
   <si>
     <t>{'东圃': 2.15, '员村': 2.95, '新港东': 2.84, '琶洲': 1.85, '科韵路': 2.52, '车陂南': 2.08}</t>
   </si>
   <si>
-    <t>{'广州火车站': 1.25, '白云公园': 2.86, '西村': 2.46, '越秀公园': 2.2, '飞翔公园': 1.27}</t>
+    <t>{'上步': 2.51, '同德': 2.31, '广州火车站': 1.25, '白云公园': 2.86, '西村': 2.46, '越秀公园': 2.2, '飞翔公园': 1.27, '鹅掌坦': 2.17}</t>
   </si>
   <si>
     <t>{'东圃': 1.57, '车陂南': 2.99, '鱼珠': 1.73}</t>
   </si>
   <si>
+    <t>{'三元里': 2.51, '同德': 0.84, '石潭': 1.95, '聚龙': 1.18, '飞翔公园': 2.87, '鹅掌坦': 1.63}</t>
+  </si>
+  <si>
     <t>{'东平': 1.46, '新城东': 2.67, '澜石': 2.24}</t>
   </si>
   <si>
@@ -991,7 +1042,7 @@
     <t>{'东晓南': 2.32, '东湖': 2.59, '宝岗大道': 2.46, '客村': 2.85, '市二宫': 2.81, '昌岗': 1.64, '晓港': 1.13, '江南西': 2.02, '江泰路': 1.67, '燕岗': 2.85, '石溪': 2.78, '鹭江': 1.61}</t>
   </si>
   <si>
-    <t>{'一德路': 2.89, '坦尾': 1.47, '如意坊': 1.24, '文化公园': 2.51, '河沙': 1.89, '滘口': 2.83, '西场': 1.37, '西村': 2.01, '西门口': 2.36, '长寿路': 1.29, '陈家祠': 1.4, '黄沙': 1.87}</t>
+    <t>{'一德路': 2.89, '华林寺': 1.73, '坦尾': 1.47, '如意坊': 1.24, '文化公园': 2.51, '河沙': 1.89, '滘口': 2.83, '西场': 1.37, '西村': 2.01, '西门口': 2.36, '长寿路': 1.29, '陈家祠': 1.4, '黄沙': 1.87}</t>
   </si>
   <si>
     <t>{'镇龙': 2.06}</t>
@@ -1006,6 +1057,9 @@
     <t>{'同和': 1.32, '天平架': 2.9, '天河客运站': 2.39, '梅花园': 1.25, '燕塘': 2.81, '长湴': 2.5}</t>
   </si>
   <si>
+    <t>{'滘心': 1.62, '石井': 1.76}</t>
+  </si>
+  <si>
     <t>{'高增': 2.22}</t>
   </si>
   <si>
@@ -1027,13 +1081,13 @@
     <t>{'旺村': 1.21, '知识城': 2.77}</t>
   </si>
   <si>
-    <t>{'一德路': 1.56, '东湖': 2.74, '农讲所': 1.16, '北京路': 0.96, '同福西': 2.92, '团一大广场': 1.64, '小北': 2.02, '市二宫': 2.24, '广州火车站': 2.64, '文化公园': 2.39, '海珠广场': 1.19, '淘金': 2.58, '烈士陵园': 2.19, '纪念堂': 0.75, '西场': 3.0, '西村': 2.93, '西门口': 0.87, '越秀公园': 1.65, '长寿路': 2.39, '陈家祠': 1.83, '黄沙': 3.0}</t>
+    <t>{'一德路': 1.56, '东湖': 2.74, '农讲所': 1.16, '北京路': 0.96, '华林寺': 1.92, '同福西': 2.92, '团一大广场': 1.64, '小北': 2.02, '市二宫': 2.24, '广州火车站': 2.64, '文化公园': 2.39, '海珠广场': 1.19, '淘金': 2.58, '烈士陵园': 2.19, '纪念堂': 0.75, '西场': 3.0, '西村': 2.93, '西门口': 0.87, '越秀公园': 1.65, '长寿路': 2.39, '陈家祠': 1.83, '黄沙': 3.0}</t>
   </si>
   <si>
     <t>{'一德路': 2.41, '东山口': 2.04, '东湖': 1.84, '公园前': 1.16, '北京路': 1.03, '区庄': 2.33, '团一大广场': 0.98, '小北': 1.43, '市二宫': 2.37, '海珠广场': 1.68, '淘金': 1.56, '烈士陵园': 1.03, '纪念堂': 1.39, '西门口': 2.03, '越秀公园': 2.08, '陈家祠': 2.98, '黄花岗': 2.96}</t>
   </si>
   <si>
-    <t>{'一德路': 2.04, '同福西': 0.84, '坑口': 2.98, '宝岗大道': 1.7, '市二宫': 1.9, '文化公园': 1.76, '昌岗': 2.18, '晓港': 2.65, '江南西': 1.85, '江泰路': 2.87, '沙园': 0.82, '沙涌': 1.6, '海珠广场': 2.43, '燕岗': 2.72, '花地湾': 2.4, '芳村': 2.12, '长寿路': 2.99, '鹤洞': 2.95, '黄沙': 2.41}</t>
+    <t>{'一德路': 2.04, '华林寺': 2.75, '同福西': 0.84, '坑口': 2.98, '宝岗大道': 1.7, '市二宫': 1.9, '文化公园': 1.76, '昌岗': 2.18, '晓港': 2.65, '江南西': 1.85, '江泰路': 2.87, '沙园': 0.82, '沙涌': 1.6, '海珠广场': 2.43, '燕岗': 2.72, '花地湾': 2.4, '芳村': 2.12, '长寿路': 2.99, '鹤洞': 2.95, '黄沙': 2.41}</t>
   </si>
   <si>
     <t>{'坑贝': 2.88}</t>
@@ -1042,7 +1096,7 @@
     <t>{'东山口': 1.69, '东湖': 2.88, '五羊邨': 1.78, '体育中心': 2.16, '体育中心南': 1.74, '体育西路': 1.5, '区庄': 1.08, '大剧院': 2.69, '天河南': 1.79, '妇儿中心': 2.21, '广州东站': 2.56, '杨箕': 0.73, '林和西': 1.87, '沙河顶': 1.42, '淘金': 2.13, '烈士陵园': 2.38, '珠江新城': 2.21, '石牌桥': 2.54, '花城大道': 2.46, '黄埔大道': 1.94, '黄花岗': 1.05}</t>
   </si>
   <si>
-    <t>{'一德路': 1.48, '东山口': 2.63, '东湖': 1.92, '公园前': 0.96, '农讲所': 1.03, '同福西': 2.64, '团一大广场': 0.82, '小北': 2.4, '市二宫': 1.42, '文化公园': 2.42, '江南西': 2.42, '海珠广场': 0.67, '淘金': 2.57, '烈士陵园': 1.81, '纪念堂': 1.65, '西门口': 1.64, '越秀公园': 2.54, '长寿路': 2.86, '陈家祠': 2.56}</t>
+    <t>{'一德路': 1.48, '东山口': 2.63, '东湖': 1.92, '公园前': 0.96, '农讲所': 1.03, '华林寺': 2.35, '同福西': 2.64, '团一大广场': 0.82, '小北': 2.4, '市二宫': 1.42, '文化公园': 2.42, '江南西': 2.42, '海珠广场': 0.67, '淘金': 2.57, '烈士陵园': 1.81, '纪念堂': 1.65, '西门口': 1.64, '越秀公园': 2.54, '长寿路': 2.86, '陈家祠': 2.56}</t>
   </si>
   <si>
     <t>{'东山口': 1.18, '东湖': 2.31, '五羊邨': 2.42, '体育中心南': 2.82, '体育西路': 2.56, '农讲所': 2.33, '动物园': 1.08, '团一大广场': 2.62, '天河南': 2.86, '小北': 2.1, '杨箕': 1.43, '林和西': 2.89, '沙河顶': 1.77, '淘金': 1.06, '烈士陵园': 1.42, '黄埔大道': 2.96, '黄花岗': 0.81}</t>
@@ -1054,6 +1108,9 @@
     <t>{'五山': 1.54, '体育中心': 1.83, '体育中心南': 2.25, '体育西路': 2.64, '天河公园': 2.45, '天河南': 2.35, '妇儿中心': 2.9, '岗顶': 0.84, '广州东站': 2.41, '林和西': 2.19, '潭村': 2.55, '燕塘': 2.87, '猎德': 2.77, '石牌桥': 1.57, '黄埔大道': 2.59}</t>
   </si>
   <si>
+    <t>{'一德路': 1.16, '中山八': 1.73, '公园前': 1.92, '凤凰新村': 2.75, '北京路': 2.35, '同福西': 1.91, '如意坊': 1.68, '市二宫': 2.67, '文化公园': 1.0, '海珠广场': 1.88, '纪念堂': 2.28, '芳村': 2.47, '西场': 2.34, '西村': 2.71, '西门口': 1.18, '越秀公园': 2.83, '长寿路': 0.51, '陈家祠': 0.85, '黄沙': 1.13}</t>
+  </si>
+  <si>
     <t>{'夏园': 2.73}</t>
   </si>
   <si>
@@ -1087,10 +1144,13 @@
     <t>{'京溪南方医院': 1.32, '梅花园': 2.5}</t>
   </si>
   <si>
+    <t>{'三元里': 2.31, '上步': 0.84, '广州火车站': 2.82, '横沙': 2.91, '沙贝': 2.68, '石潭': 2.78, '聚龙': 2.01, '西场': 2.93, '西村': 2.51, '鹅掌坦': 0.8}</t>
+  </si>
+  <si>
     <t>{'季华园': 1.35, '普君北路': 1.69, '朝安': 2.73, '祖庙': 0.95, '魁奇路': 2.81}</t>
   </si>
   <si>
-    <t>{'一德路': 1.37, '公园前': 2.92, '凤凰新村': 0.84, '北京路': 2.64, '如意坊': 2.63, '宝岗大道': 2.47, '市二宫': 1.86, '文化公园': 0.92, '昌岗': 2.78, '江南西': 2.25, '沙园': 1.66, '沙涌': 2.14, '海珠广场': 1.98, '花地湾': 2.48, '芳村': 1.74, '西门口': 2.66, '长寿路': 2.14, '陈家祠': 2.76, '黄沙': 1.63}</t>
+    <t>{'一德路': 1.37, '公园前': 2.92, '凤凰新村': 0.84, '北京路': 2.64, '华林寺': 1.91, '如意坊': 2.63, '宝岗大道': 2.47, '市二宫': 1.86, '文化公园': 0.92, '昌岗': 2.78, '江南西': 2.25, '沙园': 1.66, '沙涌': 2.14, '海珠广场': 1.98, '花地湾': 2.48, '芳村': 1.74, '西门口': 2.66, '长寿路': 2.14, '陈家祠': 2.76, '黄沙': 1.63}</t>
   </si>
   <si>
     <t>{'南村万博': 2.23, '板桥': 2.3}</t>
@@ -1168,7 +1228,7 @@
     <t>{'大观南路': 2.11, '神舟路': 2.89}</t>
   </si>
   <si>
-    <t>{'一德路': 2.67, '中山八': 1.24, '同福西': 2.63, '坦尾': 1.74, '文化公园': 1.93, '河沙': 2.69, '滘口': 2.33, '芳村': 1.88, '西场': 2.59, '西门口': 2.76, '长寿路': 1.19, '陈家祠': 1.96, '黄沙': 1.01}</t>
+    <t>{'一德路': 2.67, '中山八': 1.24, '华林寺': 1.68, '同福西': 2.63, '坦尾': 1.74, '文化公园': 1.93, '河沙': 2.69, '滘口': 2.33, '芳村': 1.88, '西场': 2.59, '西门口': 2.76, '长寿路': 1.19, '陈家祠': 1.96, '黄沙': 1.01}</t>
   </si>
   <si>
     <t>{'东山口': 2.99, '五羊邨': 1.1, '体育中心': 1.43, '体育中心南': 1.3, '体育西路': 1.0, '动物园': 2.21, '华师': 2.9, '大剧院': 0.71, '天河南': 0.98, '客村': 2.96, '岗顶': 2.06, '广州塔': 1.8, '杨箕': 1.72, '林和西': 2.11, '海心沙': 1.22, '潭村': 2.26, '猎德': 0.89, '珠江新城': 0.5, '石牌桥': 1.41, '花城大道': 0.37, '黄埔大道': 0.5}</t>
@@ -1192,10 +1252,13 @@
     <t>{'东山口': 2.55, '东湖': 2.96, '公园前': 2.02, '农讲所': 1.43, '北京路': 2.4, '区庄': 2.1, '团一大广场': 2.37, '广州火车站': 2.29, '海珠广场': 2.98, '淘金': 1.04, '烈士陵园': 1.67, '纪念堂': 1.6, '西门口': 2.67, '越秀公园': 1.59, '黄花岗': 2.36}</t>
   </si>
   <si>
+    <t>{'石井': 1.65, '石潭': 1.42, '聚龙': 2.19}</t>
+  </si>
+  <si>
     <t>{'五山': 2.35, '体育中心': 1.15, '体育中心南': 1.57, '体育西路': 1.9, '华师': 0.84, '大剧院': 2.6, '天河公园': 2.61, '天河南': 1.59, '妇儿中心': 2.06, '广州东站': 2.34, '林和西': 1.76, '潭村': 2.05, '猎德': 1.97, '珠江新城': 2.56, '石牌桥': 0.79, '花城大道': 2.31, '黄埔大道': 1.77}</t>
   </si>
   <si>
-    <t>{'一德路': 1.52, '东湖': 2.16, '中大': 2.81, '公园前': 2.24, '农讲所': 2.37, '凤凰新村': 1.9, '北京路': 1.42, '同福西': 1.86, '团一大广场': 1.6, '宝岗大道': 2.22, '文化公园': 2.17, '昌岗': 1.85, '晓港': 1.89, '江南西': 1.06, '江泰路': 2.86, '沙园': 2.15, '海珠广场': 1.08, '烈士陵园': 2.81, '纪念堂': 2.99, '西门口': 2.58}</t>
+    <t>{'一德路': 1.52, '东湖': 2.16, '中大': 2.81, '公园前': 2.24, '农讲所': 2.37, '凤凰新村': 1.9, '北京路': 1.42, '华林寺': 2.67, '同福西': 1.86, '团一大广场': 1.6, '宝岗大道': 2.22, '文化公园': 2.17, '昌岗': 1.85, '晓港': 1.89, '江南西': 1.06, '江泰路': 2.86, '沙园': 2.15, '海珠广场': 1.08, '烈士陵园': 2.81, '纪念堂': 2.99, '西门口': 2.58}</t>
   </si>
   <si>
     <t>{'番禺广场': 2.92}</t>
@@ -1213,7 +1276,7 @@
     <t>{'五羊邨': 1.78, '体育西路': 2.76, '大剧院': 1.09, '天河南': 2.78, '妇儿中心': 1.8, '客村': 1.18, '杨箕': 2.85, '海心沙': 0.58, '潭村': 2.59, '猎德': 1.61, '珠江新城': 1.46, '磨碟沙': 2.0, '花城大道': 1.43, '赤岗': 1.59, '鹭江': 2.0, '黄埔大道': 2.3}</t>
   </si>
   <si>
-    <t>{'三元里': 1.25, '公园前': 2.64, '小北': 2.29, '纪念堂': 1.91, '西场': 2.24, '西村': 1.64, '西门口': 2.55, '越秀公园': 1.02, '陈家祠': 2.7, '飞翔公园': 2.42}</t>
+    <t>{'三元里': 1.25, '公园前': 2.64, '同德': 2.82, '小北': 2.29, '纪念堂': 1.91, '西场': 2.24, '西村': 1.64, '西门口': 2.55, '越秀公园': 1.02, '陈家祠': 2.7, '飞翔公园': 2.42, '鹅掌坦': 2.31}</t>
   </si>
   <si>
     <t>{'大涌': 2.13, '金洲': 2.24, '飞沙角': 1.08}</t>
@@ -1225,7 +1288,7 @@
     <t>{'双岗': 1.17, '大沙东': 1.11, '大沙地': 2.35, '裕丰围': 1.74}</t>
   </si>
   <si>
-    <t>{'一德路': 0.94, '中山八': 2.51, '公园前': 2.39, '凤凰新村': 1.76, '北京路': 2.42, '同福西': 0.92, '如意坊': 1.93, '市二宫': 2.17, '江南西': 2.88, '沙园': 2.58, '沙涌': 2.92, '海珠广场': 1.79, '纪念堂': 2.95, '花地湾': 2.9, '芳村': 1.8, '西门口': 1.92, '长寿路': 1.23, '陈家祠': 1.86, '黄沙': 0.94}</t>
+    <t>{'一德路': 0.94, '中山八': 2.51, '公园前': 2.39, '凤凰新村': 1.76, '北京路': 2.42, '华林寺': 1.0, '同福西': 0.92, '如意坊': 1.93, '市二宫': 2.17, '江南西': 2.88, '沙园': 2.58, '沙涌': 2.92, '海珠广场': 1.79, '纪念堂': 2.95, '花地湾': 2.9, '芳村': 1.8, '西门口': 1.92, '长寿路': 1.23, '陈家祠': 1.86, '黄沙': 0.94}</t>
   </si>
   <si>
     <t>{'枫下': 2.07, '红卫': 2.58}</t>
@@ -1300,7 +1363,7 @@
     <t>{'长湴': 2.11, '龙洞': 1.21}</t>
   </si>
   <si>
-    <t>{'沙贝': 0.79, '河沙': 2.74, '浔峰岗': 0.82}</t>
+    <t>{'同德': 2.91, '沙贝': 0.79, '河沙': 2.74, '浔峰岗': 0.82, '鹅掌坦': 2.98}</t>
   </si>
   <si>
     <t>{'暹岗': 2.56, '苏元': 2.1, '萝岗': 1.33, '金峰': 2.96, '长平': 2.8, '香雪': 2.75}</t>
@@ -1336,13 +1399,13 @@
     <t>{'凤凰新村': 1.6, '同福西': 2.14, '坑口': 1.53, '宝岗大道': 2.37, '文化公园': 2.92, '沙园': 1.54, '燕岗': 2.72, '花地湾': 1.38, '芳村': 2.07, '西塱': 2.48, '鹤洞': 1.36}</t>
   </si>
   <si>
-    <t>{'横沙': 0.79, '河沙': 1.97, '浔峰岗': 1.62}</t>
+    <t>{'同德': 2.68, '横沙': 0.79, '河沙': 1.97, '浔峰岗': 1.62, '鹅掌坦': 2.54}</t>
   </si>
   <si>
     <t>{'南洲': 2.48, '厦滘': 1.89, '大塘': 2.58, '洛溪': 2.48}</t>
   </si>
   <si>
-    <t>{'中山八': 1.89, '坦尾': 1.15, '如意坊': 2.69, '横沙': 2.74, '沙贝': 1.97, '滘口': 2.59, '西场': 2.12, '西村': 2.62}</t>
+    <t>{'中山八': 1.89, '坦尾': 1.15, '如意坊': 2.69, '横沙': 2.74, '沙贝': 1.97, '滘口': 2.59, '西场': 2.12, '西村': 2.62, '鹅掌坦': 2.98}</t>
   </si>
   <si>
     <t>{'南洲': 2.44, '南浦': 1.24, '厦滘': 2.33, '沥滘': 2.48}</t>
@@ -1357,7 +1420,7 @@
     <t>{'五羊邨': 1.39, '体育中心': 2.64, '体育中心南': 2.53, '体育西路': 2.2, '大剧院': 0.51, '天河南': 2.21, '妇儿中心': 1.22, '客村': 1.76, '广州塔': 0.58, '杨箕': 2.43, '潭村': 2.3, '猎德': 1.11, '珠江新城': 0.92, '石牌桥': 2.53, '磨碟沙': 2.24, '花城大道': 0.85, '赤岗': 1.99, '鹭江': 2.45, '黄埔大道': 1.72}</t>
   </si>
   <si>
-    <t>{'一德路': 0.86, '东湖': 2.38, '公园前': 1.19, '农讲所': 1.68, '凤凰新村': 2.43, '北京路': 0.67, '同福西': 1.98, '团一大广场': 1.37, '小北': 2.98, '市二宫': 1.08, '文化公园': 1.79, '昌岗': 2.93, '晓港': 2.95, '江南西': 2.14, '沙园': 2.95, '烈士陵园': 2.46, '纪念堂': 1.94, '西门口': 1.51, '越秀公园': 2.84, '长寿路': 2.39, '陈家祠': 2.28, '黄沙': 2.65}</t>
+    <t>{'一德路': 0.86, '东湖': 2.38, '公园前': 1.19, '农讲所': 1.68, '凤凰新村': 2.43, '北京路': 0.67, '华林寺': 1.88, '同福西': 1.98, '团一大广场': 1.37, '小北': 2.98, '市二宫': 1.08, '文化公园': 1.79, '昌岗': 2.93, '晓港': 2.95, '江南西': 2.14, '沙园': 2.95, '烈士陵园': 2.46, '纪念堂': 1.94, '西门口': 1.51, '越秀公园': 2.84, '长寿路': 2.39, '陈家祠': 2.28, '黄沙': 2.65}</t>
   </si>
   <si>
     <t>{'东山口': 1.65, '东湖': 2.37, '公园前': 2.58, '农讲所': 1.56, '动物园': 2.13, '北京路': 2.57, '区庄': 1.06, '团一大广场': 2.2, '小北': 1.04, '杨箕': 2.46, '沙河顶': 2.41, '烈士陵园': 1.08, '纪念堂': 2.41, '越秀公园': 2.61, '黄花岗': 1.46}</t>
@@ -1372,6 +1435,9 @@
     <t>{'中山八': 2.83, '坦尾': 1.63, '如意坊': 2.33, '河沙': 2.59}</t>
   </si>
   <si>
+    <t>{'亭岗': 1.62}</t>
+  </si>
+  <si>
     <t>{'体育中心': 2.66, '体育中心南': 2.9, '体育西路': 2.93, '华师': 2.55, '员村': 1.82, '大剧院': 2.2, '天河公园': 1.94, '天河南': 2.69, '妇儿中心': 2.26, '岗顶': 2.05, '广州塔': 2.59, '新港东': 2.36, '海心沙': 2.3, '猎德': 1.42, '珠江新城': 2.54, '琶洲': 2.98, '石牌桥': 2.25, '磨碟沙': 2.13, '花城大道': 2.18, '赤岗': 2.59, '黄埔大道': 2.44}</t>
   </si>
   <si>
@@ -1414,12 +1480,18 @@
     <t>{'何棠下': 2.77, '枫下': 2.3}</t>
   </si>
   <si>
+    <t>{'亭岗': 1.76, '小坪': 1.65, '石潭': 2.75}</t>
+  </si>
+  <si>
     <t>{'会江': 2.27, '广州南站': 1.07, '谢村': 1.87}</t>
   </si>
   <si>
     <t>{'东晓南': 0.92, '中大': 2.78, '南洲': 1.22, '宝岗大道': 2.61, '昌岗': 2.69, '晓港': 2.83, '江泰路': 1.68, '燕岗': 1.64}</t>
   </si>
   <si>
+    <t>{'上步': 1.95, '同德': 2.78, '小坪': 1.42, '石井': 2.75, '聚龙': 0.77}</t>
+  </si>
+  <si>
     <t>{'五山': 2.97, '五羊邨': 2.35, '体育中心': 0.43, '体育中心南': 0.81, '体育西路': 1.11, '动物园': 2.54, '华师': 1.57, '大剧院': 2.05, '天河南': 0.81, '妇儿中心': 1.41, '岗顶': 0.79, '广州东站': 2.12, '杨箕': 2.44, '林和西': 1.25, '海心沙': 2.53, '潭村': 2.25, '猎德': 1.62, '珠江新城': 1.9, '花城大道': 1.72, '黄埔大道': 1.03}</t>
   </si>
   <si>
@@ -1447,7 +1519,10 @@
     <t>{'新南': 2.58, '新和': 2.6}</t>
   </si>
   <si>
-    <t>{'一德路': 2.22, '公园前': 0.75, '农讲所': 1.39, '北京路': 1.65, '团一大广场': 2.18, '小北': 1.6, '市二宫': 2.99, '广州火车站': 1.91, '文化公园': 2.95, '海珠广场': 1.94, '淘金': 2.41, '烈士陵园': 2.35, '西场': 2.66, '西村': 2.45, '西门口': 1.1, '越秀公园': 0.9, '长寿路': 2.65, '陈家祠': 1.88}</t>
+    <t>{'一德路': 2.22, '公园前': 0.75, '农讲所': 1.39, '北京路': 1.65, '华林寺': 2.28, '团一大广场': 2.18, '小北': 1.6, '市二宫': 2.99, '广州火车站': 1.91, '文化公园': 2.95, '海珠广场': 1.94, '淘金': 2.41, '烈士陵园': 2.35, '西场': 2.66, '西村': 2.45, '西门口': 1.1, '越秀公园': 0.9, '长寿路': 2.65, '陈家祠': 1.88}</t>
+  </si>
+  <si>
+    <t>{'上步': 1.18, '同德': 2.01, '小坪': 2.19, '石潭': 0.77, '飞翔公园': 2.9, '鹅掌坦': 2.78}</t>
   </si>
   <si>
     <t>{'凤凰新村': 2.4, '同福西': 2.48, '坑口': 0.92, '文化公园': 2.9, '沙园': 2.72, '沙涌': 1.38, '芳村': 1.29, '西塱': 2.41, '鹤洞': 1.74, '黄沙': 2.68}</t>
@@ -1468,7 +1543,7 @@
     <t>{'广州北站': 2.19, '飞鹅岭': 2.58}</t>
   </si>
   <si>
-    <t>{'一德路': 2.72, '凤凰新村': 2.12, '同福西': 1.74, '坑口': 2.22, '如意坊': 1.88, '文化公园': 1.8, '沙园': 2.78, '沙涌': 2.07, '花地湾': 1.29, '长寿路': 2.3, '鹤洞': 2.94, '黄沙': 1.39}</t>
+    <t>{'一德路': 2.72, '凤凰新村': 2.12, '华林寺': 2.47, '同福西': 1.74, '坑口': 2.22, '如意坊': 1.88, '文化公园': 1.8, '沙园': 2.78, '沙涌': 2.07, '花地湾': 1.29, '长寿路': 2.3, '鹤洞': 2.94, '黄沙': 1.39}</t>
   </si>
   <si>
     <t>{'暹岗': 0.86, '水西': 2.1, '科学城': 2.05, '萝岗': 1.39, '金峰': 2.12}</t>
@@ -1492,16 +1567,16 @@
     <t>{'双岗': 1.98, '大沙东': 1.3, '大沙地': 1.3, '文冲': 1.74, '鱼珠': 2.41}</t>
   </si>
   <si>
-    <t>{'中山八': 1.37, '公园前': 3.0, '坦尾': 2.42, '如意坊': 2.59, '广州火车站': 2.24, '河沙': 2.12, '纪念堂': 2.66, '西村': 0.66, '西门口': 2.27, '越秀公园': 2.4, '长寿路': 2.15, '陈家祠': 1.55, '黄沙': 2.99}</t>
+    <t>{'中山八': 1.37, '公园前': 3.0, '华林寺': 2.34, '同德': 2.93, '坦尾': 2.42, '如意坊': 2.59, '广州火车站': 2.24, '河沙': 2.12, '纪念堂': 2.66, '西村': 0.66, '西门口': 2.27, '越秀公园': 2.4, '长寿路': 2.15, '陈家祠': 1.55, '鹅掌坦': 2.12, '黄沙': 2.99}</t>
   </si>
   <si>
     <t>{'坑口': 1.5, '沙涌': 2.48, '花地湾': 2.41, '菊树': 1.96, '鹤洞': 1.15}</t>
   </si>
   <si>
-    <t>{'三元里': 2.46, '中山八': 2.01, '公园前': 2.93, '广州火车站': 1.64, '河沙': 2.62, '纪念堂': 2.45, '西场': 0.66, '西门口': 2.34, '越秀公园': 1.99, '长寿路': 2.63, '陈家祠': 1.87}</t>
-  </si>
-  <si>
-    <t>{'一德路': 1.36, '中山八': 2.36, '公园前': 0.87, '农讲所': 2.03, '北京路': 1.64, '同福西': 2.66, '团一大广场': 2.43, '如意坊': 2.76, '小北': 2.67, '市二宫': 2.58, '广州火车站': 2.55, '文化公园': 1.92, '海珠广场': 1.51, '纪念堂': 1.1, '西场': 2.27, '西村': 2.34, '越秀公园': 1.74, '长寿路': 1.58, '陈家祠': 0.96, '黄沙': 2.31}</t>
+    <t>{'三元里': 2.46, '中山八': 2.01, '公园前': 2.93, '华林寺': 2.71, '同德': 2.51, '广州火车站': 1.64, '河沙': 2.62, '纪念堂': 2.45, '西场': 0.66, '西门口': 2.34, '越秀公园': 1.99, '长寿路': 2.63, '陈家祠': 1.87, '鹅掌坦': 1.72}</t>
+  </si>
+  <si>
+    <t>{'一德路': 1.36, '中山八': 2.36, '公园前': 0.87, '农讲所': 2.03, '北京路': 1.64, '华林寺': 1.18, '同福西': 2.66, '团一大广场': 2.43, '如意坊': 2.76, '小北': 2.67, '市二宫': 2.58, '广州火车站': 2.55, '文化公园': 1.92, '海珠广场': 1.51, '纪念堂': 1.1, '西场': 2.27, '西村': 2.34, '越秀公园': 1.74, '长寿路': 1.58, '陈家祠': 0.96, '黄沙': 2.31}</t>
   </si>
   <si>
     <t>{'会江': 2.68, '广州南站': 2.74, '石壁': 1.87, '钟村': 2.21}</t>
@@ -1510,7 +1585,7 @@
     <t>{'大剧院': 2.43, '大塘': 2.45, '客村': 1.48, '广州塔': 1.59, '新港东': 2.28, '海心沙': 1.99, '潭村': 2.59, '猎德': 2.47, '珠江新城': 2.9, '磨碟沙': 0.71, '花城大道': 2.74, '鹭江': 2.72}</t>
   </si>
   <si>
-    <t>{'三元里': 2.2, '公园前': 1.65, '农讲所': 2.08, '北京路': 2.54, '团一大广场': 2.99, '小北': 1.59, '广州火车站': 1.02, '海珠广场': 2.84, '淘金': 2.61, '烈士陵园': 2.89, '纪念堂': 0.9, '西场': 2.4, '西村': 1.99, '西门口': 1.74, '陈家祠': 2.21}</t>
+    <t>{'三元里': 2.2, '公园前': 1.65, '农讲所': 2.08, '北京路': 2.54, '华林寺': 2.83, '团一大广场': 2.99, '小北': 1.59, '广州火车站': 1.02, '海珠广场': 2.84, '淘金': 2.61, '烈士陵园': 2.89, '纪念堂': 0.9, '西场': 2.4, '西村': 1.99, '西门口': 1.74, '陈家祠': 2.21}</t>
   </si>
   <si>
     <t>{'东圃': 1.79, '大观南路': 2.52, '棠东': 0.96, '科韵路': 1.96, '车陂南': 1.13, '黄村': 1.45}</t>
@@ -1543,7 +1618,7 @@
     <t>{'镇龙': 2.09, '镇龙北': 1.32}</t>
   </si>
   <si>
-    <t>{'一德路': 1.64, '中山八': 1.29, '公园前': 2.39, '凤凰新村': 2.99, '北京路': 2.86, '同福西': 2.14, '坦尾': 2.56, '如意坊': 1.19, '文化公园': 1.23, '海珠广场': 2.39, '纪念堂': 2.65, '芳村': 2.3, '西场': 2.15, '西村': 2.63, '西门口': 1.58, '陈家祠': 0.92, '黄沙': 0.91}</t>
+    <t>{'一德路': 1.64, '中山八': 1.29, '公园前': 2.39, '凤凰新村': 2.99, '北京路': 2.86, '华林寺': 0.51, '同福西': 2.14, '坦尾': 2.56, '如意坊': 1.19, '文化公园': 1.23, '海珠广场': 2.39, '纪念堂': 2.65, '芳村': 2.3, '西场': 2.15, '西村': 2.63, '西门口': 1.58, '陈家祠': 0.92, '黄沙': 0.91}</t>
   </si>
   <si>
     <t>{'水西': 2.8}</t>
@@ -1552,13 +1627,13 @@
     <t>{'五山': 2.86, '京溪南方医院': 2.5, '天河客运站': 1.03, '梅花园': 2.98, '植物园': 2.11}</t>
   </si>
   <si>
-    <t>{'一德路': 1.79, '中山八': 1.4, '公园前': 1.83, '农讲所': 2.98, '北京路': 2.56, '同福西': 2.76, '坦尾': 2.87, '如意坊': 1.96, '广州火车站': 2.7, '文化公园': 1.86, '海珠广场': 2.28, '纪念堂': 1.88, '西场': 1.55, '西村': 1.87, '西门口': 0.96, '越秀公园': 2.21, '长寿路': 0.92, '黄沙': 1.82}</t>
+    <t>{'一德路': 1.79, '中山八': 1.4, '公园前': 1.83, '农讲所': 2.98, '北京路': 2.56, '华林寺': 0.85, '同福西': 2.76, '坦尾': 2.87, '如意坊': 1.96, '广州火车站': 2.7, '文化公园': 1.86, '海珠广场': 2.28, '纪念堂': 1.88, '西场': 1.55, '西村': 1.87, '西门口': 0.96, '越秀公园': 2.21, '长寿路': 0.92, '黄沙': 1.82}</t>
   </si>
   <si>
     <t>{'大涌': 2.97, '广隆': 1.08, '蕉门': 2.5, '金洲': 1.16}</t>
   </si>
   <si>
-    <t>{'三元里': 1.27, '广州火车站': 2.42, '白云公园': 1.59, '白云文化广场': 2.6}</t>
+    <t>{'三元里': 1.27, '上步': 2.87, '广州火车站': 2.42, '白云公园': 1.59, '白云文化广场': 2.6, '聚龙': 2.9}</t>
   </si>
   <si>
     <t>{'花都汽车城': 2.58}</t>
@@ -1585,6 +1660,9 @@
     <t>{'三溪': 1.73, '大沙东': 2.76, '大沙地': 1.45, '裕丰围': 2.41}</t>
   </si>
   <si>
+    <t>{'三元里': 2.17, '上步': 1.63, '同德': 0.8, '广州火车站': 2.31, '横沙': 2.98, '沙贝': 2.54, '河沙': 2.98, '聚龙': 2.78, '西场': 2.12, '西村': 1.72}</t>
+  </si>
+  <si>
     <t>{'凤凰新村': 2.95, '坑口': 1.06, '沙园': 2.75, '沙涌': 1.36, '花地湾': 1.74, '芳村': 2.94, '菊树': 2.89, '西塱': 1.15}</t>
   </si>
   <si>
@@ -1597,7 +1675,7 @@
     <t>{'东圃': 2.56, '大观南路': 1.42, '棠东': 1.84, '车陂': 1.45, '车陂南': 2.53}</t>
   </si>
   <si>
-    <t>{'一德路': 1.8, '中山八': 1.87, '公园前': 3.0, '凤凰新村': 2.41, '同福西': 1.63, '坦尾': 2.74, '如意坊': 1.01, '文化公园': 0.94, '海珠广场': 2.65, '花地湾': 2.68, '芳村': 1.39, '西场': 2.99, '西门口': 2.31, '长寿路': 0.91, '陈家祠': 1.82}</t>
+    <t>{'一德路': 1.8, '中山八': 1.87, '公园前': 3.0, '凤凰新村': 2.41, '华林寺': 1.13, '同福西': 1.63, '坦尾': 2.74, '如意坊': 1.01, '文化公园': 0.94, '海珠广场': 2.65, '花地湾': 2.68, '芳村': 1.39, '西场': 2.99, '西门口': 2.31, '长寿路': 0.91, '陈家祠': 1.82}</t>
   </si>
   <si>
     <t>{'东山口': 1.96, '五羊邨': 2.78, '体育中心': 2.99, '体育中心南': 2.61, '体育西路': 2.47, '农讲所': 2.96, '动物园': 1.05, '区庄': 0.81, '天平架': 3.0, '天河南': 2.74, '小北': 2.36, '广州东站': 2.78, '杨箕': 1.71, '林和西': 2.46, '沙河顶': 0.99, '淘金': 1.46, '烈士陵园': 2.17, '黄埔大道': 2.96}</t>
@@ -1979,7 +2057,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E236"/>
+  <dimension ref="A1:E246"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2010,13 +2088,13 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="D2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>313</v>
+        <v>329</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2027,13 +2105,13 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="D3">
         <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>314</v>
+        <v>330</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2044,13 +2122,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="D4">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>315</v>
+        <v>331</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2061,13 +2139,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="D5">
         <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>316</v>
+        <v>332</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2075,16 +2153,16 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
       <c r="D6">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E6" t="s">
-        <v>317</v>
+        <v>333</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2095,13 +2173,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="D7">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E7" t="s">
-        <v>318</v>
+        <v>334</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2112,13 +2190,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="D8">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>319</v>
+        <v>335</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2129,13 +2207,13 @@
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="E9" t="s">
-        <v>320</v>
+        <v>336</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2143,16 +2221,16 @@
         <v>13</v>
       </c>
       <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>251</v>
+      </c>
+      <c r="D10">
         <v>2</v>
       </c>
-      <c r="C10" t="s">
-        <v>242</v>
-      </c>
-      <c r="D10">
-        <v>9</v>
-      </c>
       <c r="E10" t="s">
-        <v>321</v>
+        <v>337</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2160,16 +2238,16 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E11" t="s">
-        <v>322</v>
+        <v>338</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2180,13 +2258,13 @@
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="D12">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>323</v>
+        <v>339</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2197,13 +2275,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="E13" t="s">
-        <v>241</v>
+        <v>340</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -2214,13 +2292,13 @@
         <v>0</v>
       </c>
       <c r="C14" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="D14">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E14" t="s">
-        <v>324</v>
+        <v>251</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -2231,13 +2309,13 @@
         <v>0</v>
       </c>
       <c r="C15" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="D15">
         <v>12</v>
       </c>
       <c r="E15" t="s">
-        <v>325</v>
+        <v>341</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -2248,13 +2326,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E16" t="s">
-        <v>326</v>
+        <v>342</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -2265,13 +2343,13 @@
         <v>0</v>
       </c>
       <c r="C17" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="D17">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>327</v>
+        <v>343</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -2279,16 +2357,16 @@
         <v>21</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="D18">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="E18" t="s">
-        <v>328</v>
+        <v>344</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -2296,16 +2374,16 @@
         <v>22</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>241</v>
+        <v>254</v>
       </c>
       <c r="D19">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="E19" t="s">
-        <v>329</v>
+        <v>345</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -2316,13 +2394,13 @@
         <v>0</v>
       </c>
       <c r="C20" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E20" t="s">
-        <v>330</v>
+        <v>346</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -2333,13 +2411,13 @@
         <v>0</v>
       </c>
       <c r="C21" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E21" t="s">
-        <v>241</v>
+        <v>347</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -2350,13 +2428,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="D22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>331</v>
+        <v>348</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -2367,13 +2445,13 @@
         <v>0</v>
       </c>
       <c r="C23" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23" t="s">
-        <v>332</v>
+        <v>251</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -2381,16 +2459,16 @@
         <v>27</v>
       </c>
       <c r="B24">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C24" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="D24">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="E24" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -2398,16 +2476,16 @@
         <v>28</v>
       </c>
       <c r="B25">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C25" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="D25">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="E25" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -2415,16 +2493,16 @@
         <v>29</v>
       </c>
       <c r="B26">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C26" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="D26">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E26" t="s">
-        <v>335</v>
+        <v>351</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -2432,16 +2510,16 @@
         <v>30</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C27" t="s">
-        <v>241</v>
+        <v>256</v>
       </c>
       <c r="D27">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="E27" t="s">
-        <v>336</v>
+        <v>352</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -2449,16 +2527,16 @@
         <v>31</v>
       </c>
       <c r="B28">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C28" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="D28">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E28" t="s">
-        <v>337</v>
+        <v>353</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -2466,16 +2544,16 @@
         <v>32</v>
       </c>
       <c r="B29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C29" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="D29">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="E29" t="s">
-        <v>338</v>
+        <v>354</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -2483,16 +2561,16 @@
         <v>33</v>
       </c>
       <c r="B30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C30" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="D30">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E30" t="s">
-        <v>339</v>
+        <v>355</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -2500,16 +2578,16 @@
         <v>34</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C31" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="D31">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="E31" t="s">
-        <v>340</v>
+        <v>356</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -2517,16 +2595,16 @@
         <v>35</v>
       </c>
       <c r="B32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C32" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="D32">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E32" t="s">
-        <v>341</v>
+        <v>357</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -2534,16 +2612,16 @@
         <v>36</v>
       </c>
       <c r="B33">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C33" t="s">
         <v>251</v>
       </c>
       <c r="D33">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="E33" t="s">
-        <v>342</v>
+        <v>358</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -2554,13 +2632,13 @@
         <v>1</v>
       </c>
       <c r="C34" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="D34">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E34" t="s">
-        <v>343</v>
+        <v>359</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -2568,16 +2646,16 @@
         <v>38</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C35" t="s">
-        <v>241</v>
+        <v>262</v>
       </c>
       <c r="D35">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="E35" t="s">
-        <v>344</v>
+        <v>360</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -2588,13 +2666,13 @@
         <v>1</v>
       </c>
       <c r="C36" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="D36">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E36" t="s">
-        <v>345</v>
+        <v>361</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -2605,13 +2683,13 @@
         <v>0</v>
       </c>
       <c r="C37" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="D37">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E37" t="s">
-        <v>346</v>
+        <v>362</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -2619,16 +2697,16 @@
         <v>41</v>
       </c>
       <c r="B38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C38" t="s">
-        <v>241</v>
+        <v>264</v>
       </c>
       <c r="D38">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E38" t="s">
-        <v>347</v>
+        <v>363</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -2636,16 +2714,16 @@
         <v>42</v>
       </c>
       <c r="B39">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C39" t="s">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="D39">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="E39" t="s">
-        <v>348</v>
+        <v>364</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -2656,13 +2734,13 @@
         <v>0</v>
       </c>
       <c r="C40" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="D40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E40" t="s">
-        <v>349</v>
+        <v>365</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -2673,13 +2751,13 @@
         <v>0</v>
       </c>
       <c r="C41" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="D41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E41" t="s">
-        <v>350</v>
+        <v>366</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -2690,13 +2768,13 @@
         <v>1</v>
       </c>
       <c r="C42" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="D42">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E42" t="s">
-        <v>351</v>
+        <v>367</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -2707,13 +2785,13 @@
         <v>0</v>
       </c>
       <c r="C43" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="D43">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E43" t="s">
-        <v>352</v>
+        <v>368</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -2724,13 +2802,13 @@
         <v>0</v>
       </c>
       <c r="C44" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="D44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E44" t="s">
-        <v>353</v>
+        <v>369</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -2738,16 +2816,16 @@
         <v>48</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C45" t="s">
-        <v>241</v>
+        <v>267</v>
       </c>
       <c r="D45">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E45" t="s">
-        <v>354</v>
+        <v>370</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -2758,13 +2836,13 @@
         <v>0</v>
       </c>
       <c r="C46" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="D46">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E46" t="s">
-        <v>355</v>
+        <v>371</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -2775,13 +2853,13 @@
         <v>0</v>
       </c>
       <c r="C47" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="D47">
         <v>2</v>
       </c>
       <c r="E47" t="s">
-        <v>356</v>
+        <v>372</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -2789,16 +2867,16 @@
         <v>51</v>
       </c>
       <c r="B48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C48" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="D48">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E48" t="s">
-        <v>357</v>
+        <v>373</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -2806,16 +2884,16 @@
         <v>52</v>
       </c>
       <c r="B49">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C49" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="D49">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="E49" t="s">
-        <v>358</v>
+        <v>374</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -2826,13 +2904,13 @@
         <v>0</v>
       </c>
       <c r="C50" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="D50">
         <v>2</v>
       </c>
       <c r="E50" t="s">
-        <v>359</v>
+        <v>375</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -2840,16 +2918,16 @@
         <v>54</v>
       </c>
       <c r="B51">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C51" t="s">
-        <v>241</v>
+        <v>268</v>
       </c>
       <c r="D51">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>360</v>
+        <v>376</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -2857,16 +2935,16 @@
         <v>55</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C52" t="s">
-        <v>241</v>
+        <v>269</v>
       </c>
       <c r="D52">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E52" t="s">
-        <v>361</v>
+        <v>377</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -2877,13 +2955,13 @@
         <v>2</v>
       </c>
       <c r="C53" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="D53">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E53" t="s">
-        <v>362</v>
+        <v>378</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -2891,16 +2969,16 @@
         <v>57</v>
       </c>
       <c r="B54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C54" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="D54">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E54" t="s">
-        <v>363</v>
+        <v>379</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -2911,13 +2989,13 @@
         <v>0</v>
       </c>
       <c r="C55" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="D55">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E55" t="s">
-        <v>364</v>
+        <v>380</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -2928,13 +3006,13 @@
         <v>0</v>
       </c>
       <c r="C56" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="D56">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E56" t="s">
-        <v>365</v>
+        <v>381</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -2942,16 +3020,16 @@
         <v>60</v>
       </c>
       <c r="B57">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C57" t="s">
-        <v>241</v>
+        <v>271</v>
       </c>
       <c r="D57">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="E57" t="s">
-        <v>366</v>
+        <v>382</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -2959,16 +3037,16 @@
         <v>61</v>
       </c>
       <c r="B58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C58" t="s">
-        <v>241</v>
+        <v>272</v>
       </c>
       <c r="D58">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E58" t="s">
-        <v>367</v>
+        <v>383</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -2979,13 +3057,13 @@
         <v>0</v>
       </c>
       <c r="C59" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="D59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E59" t="s">
-        <v>368</v>
+        <v>384</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -2996,13 +3074,13 @@
         <v>0</v>
       </c>
       <c r="C60" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="D60">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E60" t="s">
-        <v>369</v>
+        <v>385</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -3010,16 +3088,16 @@
         <v>64</v>
       </c>
       <c r="B61">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C61" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="D61">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="E61" t="s">
-        <v>370</v>
+        <v>386</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -3030,13 +3108,13 @@
         <v>0</v>
       </c>
       <c r="C62" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="D62">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E62" t="s">
-        <v>371</v>
+        <v>387</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -3047,13 +3125,13 @@
         <v>0</v>
       </c>
       <c r="C63" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="D63">
         <v>2</v>
       </c>
       <c r="E63" t="s">
-        <v>372</v>
+        <v>388</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -3064,13 +3142,13 @@
         <v>0</v>
       </c>
       <c r="C64" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="D64">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E64" t="s">
-        <v>373</v>
+        <v>389</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -3078,16 +3156,16 @@
         <v>68</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C65" t="s">
-        <v>241</v>
+        <v>273</v>
       </c>
       <c r="D65">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="E65" t="s">
-        <v>374</v>
+        <v>390</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -3098,13 +3176,13 @@
         <v>0</v>
       </c>
       <c r="C66" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="D66">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E66" t="s">
-        <v>375</v>
+        <v>391</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -3115,13 +3193,13 @@
         <v>0</v>
       </c>
       <c r="C67" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="D67">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E67" t="s">
-        <v>376</v>
+        <v>392</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -3132,13 +3210,13 @@
         <v>0</v>
       </c>
       <c r="C68" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="D68">
         <v>2</v>
       </c>
       <c r="E68" t="s">
-        <v>377</v>
+        <v>393</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -3149,13 +3227,13 @@
         <v>0</v>
       </c>
       <c r="C69" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="D69">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E69" t="s">
-        <v>378</v>
+        <v>394</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -3163,16 +3241,16 @@
         <v>73</v>
       </c>
       <c r="B70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C70" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="D70">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E70" t="s">
-        <v>379</v>
+        <v>395</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -3183,13 +3261,13 @@
         <v>0</v>
       </c>
       <c r="C71" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="D71">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E71" t="s">
-        <v>380</v>
+        <v>396</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -3197,16 +3275,16 @@
         <v>75</v>
       </c>
       <c r="B72">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C72" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="D72">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="E72" t="s">
-        <v>381</v>
+        <v>397</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -3217,13 +3295,13 @@
         <v>0</v>
       </c>
       <c r="C73" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="D73">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E73" t="s">
-        <v>382</v>
+        <v>398</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -3231,16 +3309,16 @@
         <v>77</v>
       </c>
       <c r="B74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C74" t="s">
-        <v>241</v>
+        <v>274</v>
       </c>
       <c r="D74">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>383</v>
+        <v>399</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -3251,13 +3329,13 @@
         <v>0</v>
       </c>
       <c r="C75" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="D75">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E75" t="s">
-        <v>241</v>
+        <v>400</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -3265,16 +3343,16 @@
         <v>79</v>
       </c>
       <c r="B76">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C76" t="s">
-        <v>241</v>
+        <v>275</v>
       </c>
       <c r="D76">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="E76" t="s">
-        <v>241</v>
+        <v>401</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -3285,13 +3363,13 @@
         <v>0</v>
       </c>
       <c r="C77" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="D77">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E77" t="s">
-        <v>384</v>
+        <v>402</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -3299,16 +3377,16 @@
         <v>81</v>
       </c>
       <c r="B78">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C78" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="D78">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="E78" t="s">
-        <v>385</v>
+        <v>403</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -3319,13 +3397,13 @@
         <v>0</v>
       </c>
       <c r="C79" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="D79">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E79" t="s">
-        <v>386</v>
+        <v>251</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -3336,13 +3414,13 @@
         <v>0</v>
       </c>
       <c r="C80" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="D80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E80" t="s">
-        <v>387</v>
+        <v>251</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -3353,13 +3431,13 @@
         <v>0</v>
       </c>
       <c r="C81" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="D81">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="E81" t="s">
-        <v>388</v>
+        <v>404</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -3367,16 +3445,16 @@
         <v>85</v>
       </c>
       <c r="B82">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C82" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="D82">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E82" t="s">
-        <v>389</v>
+        <v>405</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -3387,13 +3465,13 @@
         <v>0</v>
       </c>
       <c r="C83" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="D83">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E83" t="s">
-        <v>390</v>
+        <v>406</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -3404,13 +3482,13 @@
         <v>0</v>
       </c>
       <c r="C84" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="D84">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E84" t="s">
-        <v>391</v>
+        <v>407</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -3421,13 +3499,13 @@
         <v>0</v>
       </c>
       <c r="C85" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="D85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E85" t="s">
-        <v>241</v>
+        <v>408</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -3438,13 +3516,13 @@
         <v>2</v>
       </c>
       <c r="C86" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="D86">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E86" t="s">
-        <v>392</v>
+        <v>409</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -3455,13 +3533,13 @@
         <v>0</v>
       </c>
       <c r="C87" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="D87">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E87" t="s">
-        <v>393</v>
+        <v>410</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -3472,13 +3550,13 @@
         <v>0</v>
       </c>
       <c r="C88" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="D88">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="E88" t="s">
-        <v>394</v>
+        <v>411</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -3489,13 +3567,13 @@
         <v>0</v>
       </c>
       <c r="C89" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="D89">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="E89" t="s">
-        <v>395</v>
+        <v>412</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -3506,13 +3584,13 @@
         <v>0</v>
       </c>
       <c r="C90" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="D90">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E90" t="s">
-        <v>396</v>
+        <v>251</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -3520,16 +3598,16 @@
         <v>94</v>
       </c>
       <c r="B91">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C91" t="s">
-        <v>241</v>
+        <v>278</v>
       </c>
       <c r="D91">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="E91" t="s">
-        <v>397</v>
+        <v>413</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -3537,16 +3615,16 @@
         <v>95</v>
       </c>
       <c r="B92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C92" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
       <c r="D92">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E92" t="s">
-        <v>398</v>
+        <v>414</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -3557,13 +3635,13 @@
         <v>0</v>
       </c>
       <c r="C93" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="D93">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E93" t="s">
-        <v>399</v>
+        <v>415</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -3574,13 +3652,13 @@
         <v>0</v>
       </c>
       <c r="C94" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="D94">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="E94" t="s">
-        <v>400</v>
+        <v>416</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -3591,13 +3669,13 @@
         <v>0</v>
       </c>
       <c r="C95" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="D95">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E95" t="s">
-        <v>401</v>
+        <v>417</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -3608,13 +3686,13 @@
         <v>0</v>
       </c>
       <c r="C96" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="D96">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E96" t="s">
-        <v>402</v>
+        <v>418</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -3622,16 +3700,16 @@
         <v>100</v>
       </c>
       <c r="B97">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C97" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="D97">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E97" t="s">
-        <v>403</v>
+        <v>419</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -3642,13 +3720,13 @@
         <v>0</v>
       </c>
       <c r="C98" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="D98">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E98" t="s">
-        <v>404</v>
+        <v>420</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -3659,13 +3737,13 @@
         <v>0</v>
       </c>
       <c r="C99" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="D99">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E99" t="s">
-        <v>405</v>
+        <v>421</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -3676,13 +3754,13 @@
         <v>0</v>
       </c>
       <c r="C100" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="D100">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E100" t="s">
-        <v>406</v>
+        <v>422</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -3693,13 +3771,13 @@
         <v>0</v>
       </c>
       <c r="C101" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="D101">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E101" t="s">
-        <v>407</v>
+        <v>423</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -3707,16 +3785,16 @@
         <v>105</v>
       </c>
       <c r="B102">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C102" t="s">
-        <v>241</v>
+        <v>280</v>
       </c>
       <c r="D102">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E102" t="s">
-        <v>408</v>
+        <v>424</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -3724,16 +3802,16 @@
         <v>106</v>
       </c>
       <c r="B103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C103" t="s">
-        <v>268</v>
+        <v>251</v>
       </c>
       <c r="D103">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E103" t="s">
-        <v>409</v>
+        <v>425</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -3744,13 +3822,13 @@
         <v>0</v>
       </c>
       <c r="C104" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="D104">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E104" t="s">
-        <v>410</v>
+        <v>426</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -3761,13 +3839,13 @@
         <v>0</v>
       </c>
       <c r="C105" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="D105">
         <v>2</v>
       </c>
       <c r="E105" t="s">
-        <v>411</v>
+        <v>427</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -3775,16 +3853,16 @@
         <v>109</v>
       </c>
       <c r="B106">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C106" t="s">
-        <v>269</v>
+        <v>251</v>
       </c>
       <c r="D106">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="E106" t="s">
-        <v>412</v>
+        <v>428</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -3792,16 +3870,16 @@
         <v>110</v>
       </c>
       <c r="B107">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C107" t="s">
-        <v>270</v>
+        <v>251</v>
       </c>
       <c r="D107">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E107" t="s">
-        <v>413</v>
+        <v>429</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -3809,16 +3887,16 @@
         <v>111</v>
       </c>
       <c r="B108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C108" t="s">
-        <v>241</v>
+        <v>281</v>
       </c>
       <c r="D108">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E108" t="s">
-        <v>414</v>
+        <v>430</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -3826,16 +3904,16 @@
         <v>112</v>
       </c>
       <c r="B109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C109" t="s">
-        <v>271</v>
+        <v>251</v>
       </c>
       <c r="D109">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E109" t="s">
-        <v>415</v>
+        <v>431</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -3843,16 +3921,16 @@
         <v>113</v>
       </c>
       <c r="B110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C110" t="s">
-        <v>272</v>
+        <v>251</v>
       </c>
       <c r="D110">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E110" t="s">
-        <v>416</v>
+        <v>432</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -3860,16 +3938,16 @@
         <v>114</v>
       </c>
       <c r="B111">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C111" t="s">
-        <v>241</v>
+        <v>282</v>
       </c>
       <c r="D111">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E111" t="s">
-        <v>241</v>
+        <v>433</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -3877,16 +3955,16 @@
         <v>115</v>
       </c>
       <c r="B112">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C112" t="s">
-        <v>241</v>
+        <v>283</v>
       </c>
       <c r="D112">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="E112" t="s">
-        <v>417</v>
+        <v>434</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -3897,13 +3975,13 @@
         <v>0</v>
       </c>
       <c r="C113" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="D113">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E113" t="s">
-        <v>418</v>
+        <v>435</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -3914,13 +3992,13 @@
         <v>1</v>
       </c>
       <c r="C114" t="s">
-        <v>273</v>
+        <v>284</v>
       </c>
       <c r="D114">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="E114" t="s">
-        <v>419</v>
+        <v>436</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -3928,16 +4006,16 @@
         <v>118</v>
       </c>
       <c r="B115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C115" t="s">
-        <v>241</v>
+        <v>285</v>
       </c>
       <c r="D115">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E115" t="s">
-        <v>420</v>
+        <v>437</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -3945,16 +4023,16 @@
         <v>119</v>
       </c>
       <c r="B116">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C116" t="s">
-        <v>274</v>
+        <v>251</v>
       </c>
       <c r="D116">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="E116" t="s">
-        <v>421</v>
+        <v>251</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -3965,13 +4043,13 @@
         <v>0</v>
       </c>
       <c r="C117" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="D117">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E117" t="s">
-        <v>422</v>
+        <v>438</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -3982,13 +4060,13 @@
         <v>0</v>
       </c>
       <c r="C118" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="D118">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E118" t="s">
-        <v>423</v>
+        <v>439</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -3999,13 +4077,13 @@
         <v>1</v>
       </c>
       <c r="C119" t="s">
-        <v>275</v>
+        <v>286</v>
       </c>
       <c r="D119">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="E119" t="s">
-        <v>424</v>
+        <v>440</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -4016,13 +4094,13 @@
         <v>0</v>
       </c>
       <c r="C120" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="D120">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E120" t="s">
-        <v>425</v>
+        <v>441</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -4030,16 +4108,16 @@
         <v>124</v>
       </c>
       <c r="B121">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C121" t="s">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="D121">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="E121" t="s">
-        <v>426</v>
+        <v>442</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -4050,13 +4128,13 @@
         <v>0</v>
       </c>
       <c r="C122" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="D122">
         <v>2</v>
       </c>
       <c r="E122" t="s">
-        <v>427</v>
+        <v>443</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -4064,16 +4142,16 @@
         <v>126</v>
       </c>
       <c r="B123">
+        <v>0</v>
+      </c>
+      <c r="C123" t="s">
+        <v>251</v>
+      </c>
+      <c r="D123">
         <v>2</v>
       </c>
-      <c r="C123" t="s">
-        <v>277</v>
-      </c>
-      <c r="D123">
-        <v>3</v>
-      </c>
       <c r="E123" t="s">
-        <v>428</v>
+        <v>444</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -4081,16 +4159,16 @@
         <v>127</v>
       </c>
       <c r="B124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C124" t="s">
-        <v>241</v>
+        <v>288</v>
       </c>
       <c r="D124">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E124" t="s">
-        <v>429</v>
+        <v>445</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -4098,16 +4176,16 @@
         <v>128</v>
       </c>
       <c r="B125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C125" t="s">
-        <v>278</v>
+        <v>251</v>
       </c>
       <c r="D125">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E125" t="s">
-        <v>430</v>
+        <v>446</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -4115,16 +4193,16 @@
         <v>129</v>
       </c>
       <c r="B126">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C126" t="s">
-        <v>241</v>
+        <v>289</v>
       </c>
       <c r="D126">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E126" t="s">
-        <v>431</v>
+        <v>447</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -4132,16 +4210,16 @@
         <v>130</v>
       </c>
       <c r="B127">
+        <v>0</v>
+      </c>
+      <c r="C127" t="s">
+        <v>251</v>
+      </c>
+      <c r="D127">
         <v>2</v>
       </c>
-      <c r="C127" t="s">
-        <v>279</v>
-      </c>
-      <c r="D127">
-        <v>16</v>
-      </c>
       <c r="E127" t="s">
-        <v>432</v>
+        <v>448</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -4149,16 +4227,16 @@
         <v>131</v>
       </c>
       <c r="B128">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C128" t="s">
-        <v>241</v>
+        <v>290</v>
       </c>
       <c r="D128">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E128" t="s">
-        <v>433</v>
+        <v>449</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -4169,13 +4247,13 @@
         <v>0</v>
       </c>
       <c r="C129" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="D129">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E129" t="s">
-        <v>434</v>
+        <v>450</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -4183,16 +4261,16 @@
         <v>133</v>
       </c>
       <c r="B130">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C130" t="s">
-        <v>241</v>
+        <v>291</v>
       </c>
       <c r="D130">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E130" t="s">
-        <v>435</v>
+        <v>451</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -4200,16 +4278,16 @@
         <v>134</v>
       </c>
       <c r="B131">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C131" t="s">
-        <v>280</v>
+        <v>251</v>
       </c>
       <c r="D131">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="E131" t="s">
-        <v>436</v>
+        <v>452</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -4217,16 +4295,16 @@
         <v>135</v>
       </c>
       <c r="B132">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C132" t="s">
-        <v>241</v>
+        <v>292</v>
       </c>
       <c r="D132">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="E132" t="s">
-        <v>437</v>
+        <v>453</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -4234,16 +4312,16 @@
         <v>136</v>
       </c>
       <c r="B133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C133" t="s">
-        <v>281</v>
+        <v>251</v>
       </c>
       <c r="D133">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E133" t="s">
-        <v>438</v>
+        <v>454</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -4254,13 +4332,13 @@
         <v>0</v>
       </c>
       <c r="C134" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="D134">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E134" t="s">
-        <v>439</v>
+        <v>455</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -4268,16 +4346,16 @@
         <v>138</v>
       </c>
       <c r="B135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C135" t="s">
-        <v>282</v>
+        <v>251</v>
       </c>
       <c r="D135">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E135" t="s">
-        <v>440</v>
+        <v>456</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -4285,16 +4363,16 @@
         <v>139</v>
       </c>
       <c r="B136">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C136" t="s">
-        <v>241</v>
+        <v>293</v>
       </c>
       <c r="D136">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="E136" t="s">
-        <v>441</v>
+        <v>457</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -4305,13 +4383,13 @@
         <v>0</v>
       </c>
       <c r="C137" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="D137">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E137" t="s">
-        <v>442</v>
+        <v>458</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -4319,16 +4397,16 @@
         <v>141</v>
       </c>
       <c r="B138">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C138" t="s">
-        <v>241</v>
+        <v>294</v>
       </c>
       <c r="D138">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E138" t="s">
-        <v>443</v>
+        <v>459</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -4336,16 +4414,16 @@
         <v>142</v>
       </c>
       <c r="B139">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C139" t="s">
-        <v>283</v>
+        <v>251</v>
       </c>
       <c r="D139">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E139" t="s">
-        <v>444</v>
+        <v>460</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -4353,16 +4431,16 @@
         <v>143</v>
       </c>
       <c r="B140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C140" t="s">
-        <v>241</v>
+        <v>295</v>
       </c>
       <c r="D140">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E140" t="s">
-        <v>445</v>
+        <v>461</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -4370,16 +4448,16 @@
         <v>144</v>
       </c>
       <c r="B141">
+        <v>0</v>
+      </c>
+      <c r="C141" t="s">
+        <v>251</v>
+      </c>
+      <c r="D141">
         <v>4</v>
       </c>
-      <c r="C141" t="s">
-        <v>284</v>
-      </c>
-      <c r="D141">
-        <v>19</v>
-      </c>
       <c r="E141" t="s">
-        <v>446</v>
+        <v>462</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -4387,16 +4465,16 @@
         <v>145</v>
       </c>
       <c r="B142">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C142" t="s">
-        <v>285</v>
+        <v>251</v>
       </c>
       <c r="D142">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="E142" t="s">
-        <v>447</v>
+        <v>463</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -4407,13 +4485,13 @@
         <v>0</v>
       </c>
       <c r="C143" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="D143">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E143" t="s">
-        <v>448</v>
+        <v>464</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -4421,16 +4499,16 @@
         <v>147</v>
       </c>
       <c r="B144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C144" t="s">
-        <v>241</v>
+        <v>296</v>
       </c>
       <c r="D144">
         <v>2</v>
       </c>
       <c r="E144" t="s">
-        <v>449</v>
+        <v>465</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -4441,13 +4519,13 @@
         <v>0</v>
       </c>
       <c r="C145" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="D145">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E145" t="s">
-        <v>450</v>
+        <v>466</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -4455,16 +4533,16 @@
         <v>149</v>
       </c>
       <c r="B146">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C146" t="s">
-        <v>241</v>
+        <v>297</v>
       </c>
       <c r="D146">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="E146" t="s">
-        <v>451</v>
+        <v>467</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -4472,16 +4550,16 @@
         <v>150</v>
       </c>
       <c r="B147">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C147" t="s">
-        <v>241</v>
+        <v>298</v>
       </c>
       <c r="D147">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E147" t="s">
-        <v>452</v>
+        <v>468</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -4492,13 +4570,13 @@
         <v>0</v>
       </c>
       <c r="C148" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="D148">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E148" t="s">
-        <v>453</v>
+        <v>469</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -4509,13 +4587,13 @@
         <v>0</v>
       </c>
       <c r="C149" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="D149">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="E149" t="s">
-        <v>454</v>
+        <v>470</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -4523,16 +4601,16 @@
         <v>153</v>
       </c>
       <c r="B150">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C150" t="s">
-        <v>286</v>
+        <v>251</v>
       </c>
       <c r="D150">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E150" t="s">
-        <v>455</v>
+        <v>471</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -4543,13 +4621,13 @@
         <v>0</v>
       </c>
       <c r="C151" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="D151">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E151" t="s">
-        <v>456</v>
+        <v>472</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -4557,16 +4635,16 @@
         <v>155</v>
       </c>
       <c r="B152">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C152" t="s">
-        <v>287</v>
+        <v>251</v>
       </c>
       <c r="D152">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="E152" t="s">
-        <v>457</v>
+        <v>473</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -4574,16 +4652,16 @@
         <v>156</v>
       </c>
       <c r="B153">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C153" t="s">
-        <v>288</v>
+        <v>251</v>
       </c>
       <c r="D153">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E153" t="s">
-        <v>458</v>
+        <v>474</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -4591,16 +4669,16 @@
         <v>157</v>
       </c>
       <c r="B154">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C154" t="s">
-        <v>289</v>
+        <v>251</v>
       </c>
       <c r="D154">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E154" t="s">
-        <v>459</v>
+        <v>475</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -4611,13 +4689,13 @@
         <v>0</v>
       </c>
       <c r="C155" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="D155">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="E155" t="s">
-        <v>460</v>
+        <v>476</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -4625,16 +4703,16 @@
         <v>159</v>
       </c>
       <c r="B156">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C156" t="s">
-        <v>241</v>
+        <v>299</v>
       </c>
       <c r="D156">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E156" t="s">
-        <v>241</v>
+        <v>477</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -4642,16 +4720,16 @@
         <v>160</v>
       </c>
       <c r="B157">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C157" t="s">
-        <v>290</v>
+        <v>251</v>
       </c>
       <c r="D157">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E157" t="s">
-        <v>461</v>
+        <v>478</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -4659,16 +4737,16 @@
         <v>161</v>
       </c>
       <c r="B158">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C158" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="D158">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="E158" t="s">
-        <v>462</v>
+        <v>479</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -4676,16 +4754,16 @@
         <v>162</v>
       </c>
       <c r="B159">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C159" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="D159">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="E159" t="s">
-        <v>463</v>
+        <v>480</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -4693,16 +4771,16 @@
         <v>163</v>
       </c>
       <c r="B160">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C160" t="s">
-        <v>241</v>
+        <v>302</v>
       </c>
       <c r="D160">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E160" t="s">
-        <v>464</v>
+        <v>481</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -4713,13 +4791,13 @@
         <v>0</v>
       </c>
       <c r="C161" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="D161">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E161" t="s">
-        <v>465</v>
+        <v>482</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -4730,13 +4808,13 @@
         <v>0</v>
       </c>
       <c r="C162" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="D162">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E162" t="s">
-        <v>466</v>
+        <v>251</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -4747,13 +4825,13 @@
         <v>1</v>
       </c>
       <c r="C163" t="s">
-        <v>293</v>
+        <v>303</v>
       </c>
       <c r="D163">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E163" t="s">
-        <v>467</v>
+        <v>483</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -4761,16 +4839,16 @@
         <v>167</v>
       </c>
       <c r="B164">
+        <v>1</v>
+      </c>
+      <c r="C164" t="s">
+        <v>304</v>
+      </c>
+      <c r="D164">
         <v>4</v>
       </c>
-      <c r="C164" t="s">
-        <v>294</v>
-      </c>
-      <c r="D164">
-        <v>20</v>
-      </c>
       <c r="E164" t="s">
-        <v>468</v>
+        <v>484</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -4778,16 +4856,16 @@
         <v>168</v>
       </c>
       <c r="B165">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C165" t="s">
-        <v>241</v>
+        <v>305</v>
       </c>
       <c r="D165">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E165" t="s">
-        <v>469</v>
+        <v>485</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -4795,16 +4873,16 @@
         <v>169</v>
       </c>
       <c r="B166">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C166" t="s">
-        <v>295</v>
+        <v>251</v>
       </c>
       <c r="D166">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E166" t="s">
-        <v>470</v>
+        <v>486</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -4812,16 +4890,16 @@
         <v>170</v>
       </c>
       <c r="B167">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C167" t="s">
-        <v>296</v>
+        <v>251</v>
       </c>
       <c r="D167">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E167" t="s">
-        <v>471</v>
+        <v>487</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -4829,16 +4907,16 @@
         <v>171</v>
       </c>
       <c r="B168">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C168" t="s">
-        <v>297</v>
+        <v>251</v>
       </c>
       <c r="D168">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E168" t="s">
-        <v>472</v>
+        <v>488</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -4849,13 +4927,13 @@
         <v>0</v>
       </c>
       <c r="C169" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="D169">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E169" t="s">
-        <v>241</v>
+        <v>489</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -4863,16 +4941,16 @@
         <v>173</v>
       </c>
       <c r="B170">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C170" t="s">
-        <v>241</v>
+        <v>306</v>
       </c>
       <c r="D170">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E170" t="s">
-        <v>473</v>
+        <v>490</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -4880,16 +4958,16 @@
         <v>174</v>
       </c>
       <c r="B171">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C171" t="s">
-        <v>241</v>
+        <v>307</v>
       </c>
       <c r="D171">
         <v>5</v>
       </c>
       <c r="E171" t="s">
-        <v>474</v>
+        <v>491</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -4897,16 +4975,16 @@
         <v>175</v>
       </c>
       <c r="B172">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C172" t="s">
-        <v>241</v>
+        <v>308</v>
       </c>
       <c r="D172">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="E172" t="s">
-        <v>475</v>
+        <v>492</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -4917,13 +4995,13 @@
         <v>0</v>
       </c>
       <c r="C173" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="D173">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E173" t="s">
-        <v>241</v>
+        <v>493</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -4931,16 +5009,16 @@
         <v>177</v>
       </c>
       <c r="B174">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C174" t="s">
-        <v>241</v>
+        <v>309</v>
       </c>
       <c r="D174">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E174" t="s">
-        <v>476</v>
+        <v>494</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -4948,16 +5026,16 @@
         <v>178</v>
       </c>
       <c r="B175">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C175" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="D175">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="E175" t="s">
-        <v>477</v>
+        <v>495</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -4968,13 +5046,13 @@
         <v>1</v>
       </c>
       <c r="C176" t="s">
-        <v>299</v>
+        <v>311</v>
       </c>
       <c r="D176">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E176" t="s">
-        <v>478</v>
+        <v>496</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -4982,16 +5060,16 @@
         <v>180</v>
       </c>
       <c r="B177">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C177" t="s">
-        <v>300</v>
+        <v>251</v>
       </c>
       <c r="D177">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="E177" t="s">
-        <v>479</v>
+        <v>251</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -5002,13 +5080,13 @@
         <v>0</v>
       </c>
       <c r="C178" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="D178">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E178" t="s">
-        <v>480</v>
+        <v>497</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -5019,13 +5097,13 @@
         <v>0</v>
       </c>
       <c r="C179" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="D179">
         <v>5</v>
       </c>
       <c r="E179" t="s">
-        <v>481</v>
+        <v>498</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -5036,13 +5114,13 @@
         <v>0</v>
       </c>
       <c r="C180" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="D180">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E180" t="s">
-        <v>482</v>
+        <v>499</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -5053,13 +5131,13 @@
         <v>0</v>
       </c>
       <c r="C181" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="D181">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E181" t="s">
-        <v>483</v>
+        <v>251</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -5070,13 +5148,13 @@
         <v>0</v>
       </c>
       <c r="C182" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="D182">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E182" t="s">
-        <v>484</v>
+        <v>500</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -5084,16 +5162,16 @@
         <v>186</v>
       </c>
       <c r="B183">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C183" t="s">
-        <v>301</v>
+        <v>312</v>
       </c>
       <c r="D183">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="E183" t="s">
-        <v>485</v>
+        <v>501</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -5101,16 +5179,16 @@
         <v>187</v>
       </c>
       <c r="B184">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C184" t="s">
-        <v>241</v>
+        <v>313</v>
       </c>
       <c r="D184">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E184" t="s">
-        <v>486</v>
+        <v>502</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -5118,16 +5196,16 @@
         <v>188</v>
       </c>
       <c r="B185">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C185" t="s">
-        <v>241</v>
+        <v>314</v>
       </c>
       <c r="D185">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E185" t="s">
-        <v>487</v>
+        <v>503</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -5135,16 +5213,16 @@
         <v>189</v>
       </c>
       <c r="B186">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C186" t="s">
-        <v>241</v>
+        <v>315</v>
       </c>
       <c r="D186">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="E186" t="s">
-        <v>488</v>
+        <v>504</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -5155,13 +5233,13 @@
         <v>0</v>
       </c>
       <c r="C187" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="D187">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E187" t="s">
-        <v>489</v>
+        <v>505</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -5172,13 +5250,13 @@
         <v>0</v>
       </c>
       <c r="C188" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="D188">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E188" t="s">
-        <v>490</v>
+        <v>506</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -5189,13 +5267,13 @@
         <v>0</v>
       </c>
       <c r="C189" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="D189">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E189" t="s">
-        <v>491</v>
+        <v>507</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -5203,16 +5281,16 @@
         <v>193</v>
       </c>
       <c r="B190">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C190" t="s">
-        <v>302</v>
+        <v>251</v>
       </c>
       <c r="D190">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="E190" t="s">
-        <v>492</v>
+        <v>508</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -5223,13 +5301,13 @@
         <v>0</v>
       </c>
       <c r="C191" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="D191">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E191" t="s">
-        <v>493</v>
+        <v>509</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -5240,13 +5318,13 @@
         <v>1</v>
       </c>
       <c r="C192" t="s">
-        <v>303</v>
+        <v>316</v>
       </c>
       <c r="D192">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E192" t="s">
-        <v>494</v>
+        <v>510</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -5254,16 +5332,16 @@
         <v>196</v>
       </c>
       <c r="B193">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C193" t="s">
-        <v>304</v>
+        <v>251</v>
       </c>
       <c r="D193">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E193" t="s">
-        <v>495</v>
+        <v>511</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -5274,13 +5352,13 @@
         <v>0</v>
       </c>
       <c r="C194" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="D194">
         <v>4</v>
       </c>
       <c r="E194" t="s">
-        <v>496</v>
+        <v>512</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -5288,16 +5366,16 @@
         <v>198</v>
       </c>
       <c r="B195">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C195" t="s">
-        <v>305</v>
+        <v>251</v>
       </c>
       <c r="D195">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E195" t="s">
-        <v>497</v>
+        <v>513</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -5308,13 +5386,13 @@
         <v>0</v>
       </c>
       <c r="C196" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="D196">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E196" t="s">
-        <v>241</v>
+        <v>514</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -5322,16 +5400,16 @@
         <v>200</v>
       </c>
       <c r="B197">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C197" t="s">
-        <v>306</v>
+        <v>251</v>
       </c>
       <c r="D197">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E197" t="s">
-        <v>498</v>
+        <v>515</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -5339,16 +5417,16 @@
         <v>201</v>
       </c>
       <c r="B198">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C198" t="s">
-        <v>307</v>
+        <v>251</v>
       </c>
       <c r="D198">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E198" t="s">
-        <v>499</v>
+        <v>516</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -5356,16 +5434,16 @@
         <v>202</v>
       </c>
       <c r="B199">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C199" t="s">
-        <v>241</v>
+        <v>317</v>
       </c>
       <c r="D199">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E199" t="s">
-        <v>500</v>
+        <v>517</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -5376,13 +5454,13 @@
         <v>0</v>
       </c>
       <c r="C200" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="D200">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E200" t="s">
-        <v>241</v>
+        <v>518</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -5390,16 +5468,16 @@
         <v>204</v>
       </c>
       <c r="B201">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C201" t="s">
-        <v>241</v>
+        <v>318</v>
       </c>
       <c r="D201">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E201" t="s">
-        <v>501</v>
+        <v>519</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -5407,16 +5485,16 @@
         <v>205</v>
       </c>
       <c r="B202">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C202" t="s">
-        <v>241</v>
+        <v>319</v>
       </c>
       <c r="D202">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="E202" t="s">
-        <v>502</v>
+        <v>520</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -5427,13 +5505,13 @@
         <v>0</v>
       </c>
       <c r="C203" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="D203">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E203" t="s">
-        <v>503</v>
+        <v>521</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -5441,16 +5519,16 @@
         <v>207</v>
       </c>
       <c r="B204">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C204" t="s">
-        <v>241</v>
+        <v>320</v>
       </c>
       <c r="D204">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E204" t="s">
-        <v>504</v>
+        <v>522</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -5461,13 +5539,13 @@
         <v>0</v>
       </c>
       <c r="C205" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="D205">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E205" t="s">
-        <v>505</v>
+        <v>251</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -5475,16 +5553,16 @@
         <v>209</v>
       </c>
       <c r="B206">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C206" t="s">
-        <v>241</v>
+        <v>321</v>
       </c>
       <c r="D206">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E206" t="s">
-        <v>241</v>
+        <v>523</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -5492,16 +5570,16 @@
         <v>210</v>
       </c>
       <c r="B207">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C207" t="s">
-        <v>241</v>
+        <v>322</v>
       </c>
       <c r="D207">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E207" t="s">
-        <v>506</v>
+        <v>524</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -5512,13 +5590,13 @@
         <v>0</v>
       </c>
       <c r="C208" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="D208">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E208" t="s">
-        <v>507</v>
+        <v>525</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -5529,13 +5607,13 @@
         <v>0</v>
       </c>
       <c r="C209" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="D209">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E209" t="s">
-        <v>508</v>
+        <v>251</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -5543,16 +5621,16 @@
         <v>213</v>
       </c>
       <c r="B210">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C210" t="s">
-        <v>308</v>
+        <v>251</v>
       </c>
       <c r="D210">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E210" t="s">
-        <v>509</v>
+        <v>526</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -5563,13 +5641,13 @@
         <v>0</v>
       </c>
       <c r="C211" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="D211">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E211" t="s">
-        <v>510</v>
+        <v>527</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -5580,13 +5658,13 @@
         <v>0</v>
       </c>
       <c r="C212" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="D212">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E212" t="s">
-        <v>511</v>
+        <v>528</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -5594,16 +5672,16 @@
         <v>216</v>
       </c>
       <c r="B213">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C213" t="s">
-        <v>309</v>
+        <v>251</v>
       </c>
       <c r="D213">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="E213" t="s">
-        <v>512</v>
+        <v>529</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -5614,13 +5692,13 @@
         <v>0</v>
       </c>
       <c r="C214" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="D214">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E214" t="s">
-        <v>513</v>
+        <v>530</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -5631,13 +5709,13 @@
         <v>0</v>
       </c>
       <c r="C215" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="D215">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E215" t="s">
-        <v>514</v>
+        <v>251</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -5648,13 +5726,13 @@
         <v>0</v>
       </c>
       <c r="C216" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="D216">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E216" t="s">
-        <v>515</v>
+        <v>531</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -5665,13 +5743,13 @@
         <v>0</v>
       </c>
       <c r="C217" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="D217">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E217" t="s">
-        <v>516</v>
+        <v>532</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -5682,13 +5760,13 @@
         <v>0</v>
       </c>
       <c r="C218" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="D218">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E218" t="s">
-        <v>517</v>
+        <v>533</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -5696,16 +5774,16 @@
         <v>222</v>
       </c>
       <c r="B219">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C219" t="s">
-        <v>241</v>
+        <v>323</v>
       </c>
       <c r="D219">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="E219" t="s">
-        <v>518</v>
+        <v>534</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -5716,13 +5794,13 @@
         <v>0</v>
       </c>
       <c r="C220" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="D220">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E220" t="s">
-        <v>519</v>
+        <v>535</v>
       </c>
     </row>
     <row r="221" spans="1:5">
@@ -5733,13 +5811,13 @@
         <v>0</v>
       </c>
       <c r="C221" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="D221">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E221" t="s">
-        <v>520</v>
+        <v>536</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -5747,16 +5825,16 @@
         <v>225</v>
       </c>
       <c r="B222">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C222" t="s">
-        <v>241</v>
+        <v>324</v>
       </c>
       <c r="D222">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="E222" t="s">
-        <v>521</v>
+        <v>537</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -5767,13 +5845,13 @@
         <v>0</v>
       </c>
       <c r="C223" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="D223">
         <v>4</v>
       </c>
       <c r="E223" t="s">
-        <v>522</v>
+        <v>538</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -5784,13 +5862,13 @@
         <v>0</v>
       </c>
       <c r="C224" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="D224">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E224" t="s">
-        <v>523</v>
+        <v>539</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -5801,13 +5879,13 @@
         <v>0</v>
       </c>
       <c r="C225" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="D225">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E225" t="s">
-        <v>524</v>
+        <v>540</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -5815,16 +5893,16 @@
         <v>229</v>
       </c>
       <c r="B226">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C226" t="s">
-        <v>310</v>
+        <v>251</v>
       </c>
       <c r="D226">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="E226" t="s">
-        <v>525</v>
+        <v>541</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -5835,13 +5913,13 @@
         <v>0</v>
       </c>
       <c r="C227" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="D227">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E227" t="s">
-        <v>526</v>
+        <v>542</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -5849,16 +5927,16 @@
         <v>231</v>
       </c>
       <c r="B228">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C228" t="s">
-        <v>311</v>
+        <v>251</v>
       </c>
       <c r="D228">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E228" t="s">
-        <v>527</v>
+        <v>543</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -5866,16 +5944,16 @@
         <v>232</v>
       </c>
       <c r="B229">
+        <v>0</v>
+      </c>
+      <c r="C229" t="s">
+        <v>251</v>
+      </c>
+      <c r="D229">
         <v>2</v>
       </c>
-      <c r="C229" t="s">
-        <v>312</v>
-      </c>
-      <c r="D229">
-        <v>18</v>
-      </c>
       <c r="E229" t="s">
-        <v>528</v>
+        <v>544</v>
       </c>
     </row>
     <row r="230" spans="1:5">
@@ -5886,13 +5964,13 @@
         <v>0</v>
       </c>
       <c r="C230" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="D230">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E230" t="s">
-        <v>529</v>
+        <v>545</v>
       </c>
     </row>
     <row r="231" spans="1:5">
@@ -5903,13 +5981,13 @@
         <v>0</v>
       </c>
       <c r="C231" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="D231">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E231" t="s">
-        <v>530</v>
+        <v>546</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -5920,13 +5998,13 @@
         <v>0</v>
       </c>
       <c r="C232" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="D232">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E232" t="s">
-        <v>531</v>
+        <v>547</v>
       </c>
     </row>
     <row r="233" spans="1:5">
@@ -5934,16 +6012,16 @@
         <v>236</v>
       </c>
       <c r="B233">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C233" t="s">
-        <v>241</v>
+        <v>325</v>
       </c>
       <c r="D233">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E233" t="s">
-        <v>532</v>
+        <v>548</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -5954,13 +6032,13 @@
         <v>0</v>
       </c>
       <c r="C234" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="D234">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E234" t="s">
-        <v>533</v>
+        <v>549</v>
       </c>
     </row>
     <row r="235" spans="1:5">
@@ -5971,13 +6049,13 @@
         <v>0</v>
       </c>
       <c r="C235" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="D235">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E235" t="s">
-        <v>534</v>
+        <v>550</v>
       </c>
     </row>
     <row r="236" spans="1:5">
@@ -5985,16 +6063,186 @@
         <v>239</v>
       </c>
       <c r="B236">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C236" t="s">
+        <v>326</v>
+      </c>
+      <c r="D236">
+        <v>24</v>
+      </c>
+      <c r="E236" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5">
+      <c r="A237" t="s">
+        <v>240</v>
+      </c>
+      <c r="B237">
+        <v>0</v>
+      </c>
+      <c r="C237" t="s">
+        <v>251</v>
+      </c>
+      <c r="D237">
+        <v>5</v>
+      </c>
+      <c r="E237" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5">
+      <c r="A238" t="s">
         <v>241</v>
       </c>
-      <c r="D236">
-        <v>1</v>
-      </c>
-      <c r="E236" t="s">
-        <v>535</v>
+      <c r="B238">
+        <v>2</v>
+      </c>
+      <c r="C238" t="s">
+        <v>327</v>
+      </c>
+      <c r="D238">
+        <v>16</v>
+      </c>
+      <c r="E238" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5">
+      <c r="A239" t="s">
+        <v>242</v>
+      </c>
+      <c r="B239">
+        <v>2</v>
+      </c>
+      <c r="C239" t="s">
+        <v>328</v>
+      </c>
+      <c r="D239">
+        <v>18</v>
+      </c>
+      <c r="E239" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5">
+      <c r="A240" t="s">
+        <v>243</v>
+      </c>
+      <c r="B240">
+        <v>0</v>
+      </c>
+      <c r="C240" t="s">
+        <v>251</v>
+      </c>
+      <c r="D240">
+        <v>5</v>
+      </c>
+      <c r="E240" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5">
+      <c r="A241" t="s">
+        <v>244</v>
+      </c>
+      <c r="B241">
+        <v>0</v>
+      </c>
+      <c r="C241" t="s">
+        <v>251</v>
+      </c>
+      <c r="D241">
+        <v>2</v>
+      </c>
+      <c r="E241" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5">
+      <c r="A242" t="s">
+        <v>245</v>
+      </c>
+      <c r="B242">
+        <v>0</v>
+      </c>
+      <c r="C242" t="s">
+        <v>251</v>
+      </c>
+      <c r="D242">
+        <v>1</v>
+      </c>
+      <c r="E242" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5">
+      <c r="A243" t="s">
+        <v>246</v>
+      </c>
+      <c r="B243">
+        <v>0</v>
+      </c>
+      <c r="C243" t="s">
+        <v>251</v>
+      </c>
+      <c r="D243">
+        <v>4</v>
+      </c>
+      <c r="E243" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5">
+      <c r="A244" t="s">
+        <v>247</v>
+      </c>
+      <c r="B244">
+        <v>0</v>
+      </c>
+      <c r="C244" t="s">
+        <v>251</v>
+      </c>
+      <c r="D244">
+        <v>1</v>
+      </c>
+      <c r="E244" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5">
+      <c r="A245" t="s">
+        <v>248</v>
+      </c>
+      <c r="B245">
+        <v>0</v>
+      </c>
+      <c r="C245" t="s">
+        <v>251</v>
+      </c>
+      <c r="D245">
+        <v>2</v>
+      </c>
+      <c r="E245" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5">
+      <c r="A246" t="s">
+        <v>249</v>
+      </c>
+      <c r="B246">
+        <v>0</v>
+      </c>
+      <c r="C246" t="s">
+        <v>251</v>
+      </c>
+      <c r="D246">
+        <v>1</v>
+      </c>
+      <c r="E246" t="s">
+        <v>561</v>
       </c>
     </row>
   </sheetData>
